--- a/03.crawler/03.eBay/file/5.collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/03.eBay/file/5.collate/crawler_1-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,333 +436,296 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Json_Compatibility</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Item Number</t>
+          <t>Vehicle W/o Engine</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Json_Compatibility</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle W/o Engine</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Vehicle W/ Engine</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{"page": 1, "market_place_id": "EBAY-US", "item_id": "235544392154", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>253139036562</t>
+          <t>Cadillac SRX 2004-2009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 7, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "253139036562", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Chrysler Town &amp; Country 2001-2007
-Chrysler Voyager 2001-2003
-Dodge Caravan 2001-2007
-Dodge Grand Caravan 2002-2007</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Chrysler Town &amp; Country 2001-2003 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
-Chrysler Town &amp; Country 2001-2007 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
-Chrysler Town &amp; Country 2001-2007 3.8L 3778CC 231Cu. In. V6 GAS OHV Naturally Aspirated
-Chrysler Voyager 2001-2002 2.4L 2429CC 148Cu. In. l4 GAS DOHC Naturally Aspirated
-Chrysler Voyager 2001-2003 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
-Chrysler Voyager 2001-2003 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
-Dodge Caravan 2001-2007 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
-Dodge Caravan 2001-2007 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
-Dodge Grand Caravan 2002-2007 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
-Dodge Grand Caravan 2002-2007 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
-Dodge Grand Caravan 2002-2007 3.8L 3778CC 231Cu. In. V6 GAS OHV Naturally Aspirated</t>
+          <t>Cadillac SRX 2004-2009 3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{"page": 11, "market_place_id": "EBAY-US", "item_id": "256469386720", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>255922672592</t>
+          <t>Dodge Ram 1500 2003-2008
+Dodge Ram 2500 2003-2008
+Dodge Ram 3500 2003-2008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 6, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "255922672592", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Taurus 2001-2007
-Mercury Sable 2001-2005</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Taurus 2001-2005 3.0L 2968CC 181Cu. In. V6 GAS DOHC Naturally Aspirated
-Ford Taurus 2001-2006 3.0L 2986CC 182Cu. In. V6 FLEX OHV Naturally Aspirated
-Ford Taurus 2001-2007 3.0L 2986CC 182Cu. In. V6 GAS OHV Naturally Aspirated
-Mercury Sable 2001-2005 3.0L 2968CC 181Cu. In. V6 GAS DOHC Naturally Aspirated
-Mercury Sable 2001-2005 3.0L 2986CC 182Cu. In. V6 FLEX OHV Naturally Aspirated
-Mercury Sable 2001-2005 3.0L 2986CC 182Cu. In. V6 GAS OHV Naturally Aspirated</t>
+          <t>Dodge Ram 1500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Ram 2500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Ram 3500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{"page": 15, "market_place_id": "EBAY-US", "item_id": "252900220689", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>235653299500</t>
+          <t>Chrysler Crossfire 2004-2008
+Dodge Sprinter 2500 2003-2006
+Dodge Sprinter 3500 2003-2006
+Freightliner Sprinter 2500 2002-2006
+Freightliner Sprinter 3500 2002-2006
+Mercedes-Benz C220 1996
+Mercedes-Benz C230 1997-2000
+Mercedes-Benz C280 1996-2000
+Mercedes-Benz C36 AMG 1996-1997
+Mercedes-Benz C43 AMG 1998-2000
+Mercedes-Benz CL500 1998-2000
+Mercedes-Benz CLK320 1998-2003
+Mercedes-Benz CLK430 1999-2003
+Mercedes-Benz E300 1996-1999
+Mercedes-Benz E320 1996-2002
+Mercedes-Benz E420 1997
+Mercedes-Benz E430 1998-2002
+Mercedes-Benz E55 AMG 1999-2000
+Mercedes-Benz ML320 1998-2002
+Mercedes-Benz ML430 1999-2001
+Mercedes-Benz S320 1996-1999
+Mercedes-Benz SLK230 1998-2004
+Mercedes-Benz SLK320 2001-2004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 1, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "235653299500", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Chevrolet Malibu 2004-2006
-Pontiac G6 2005-2006</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Chevrolet Malibu 2004-2006 3.5L 213Cu. In. V6 GAS OHV Naturally Aspirated
-Chevrolet Malibu 2006 3.5L 3498CC 213Cu. In. V6 GAS OHV Naturally Aspirated
-Pontiac G6 2005-2006 3.5L 3498CC 213Cu. In. V6 GAS OHV Naturally Aspirated</t>
+          <t>Chrysler Crossfire 2004-2008 3.2L 3200CC 195Cu. In. V6 GAS SOHC Naturally Aspirated
+Dodge Sprinter 2500 2003-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
+Dodge Sprinter 3500 2003-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
+Freightliner Sprinter 2500 2002-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
+Freightliner Sprinter 3500 2002-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
+Mercedes-Benz C220 1996 2.2L 2199CC l4 GAS DOHC Naturally Aspirated
+Mercedes-Benz C230 1997-1998 2.3L 2295CC l4 GAS DOHC Naturally Aspirated
+Mercedes-Benz C230 1999-2000 2.3L 2295CC l4 GAS DOHC Supercharged
+Mercedes-Benz C280 1996-1997 2.8L 2799CC l6 GAS DOHC Naturally Aspirated
+Mercedes-Benz C280 1998-2000 2.8L 2799CC V6 GAS SOHC Naturally Aspirated
+Mercedes-Benz C36 AMG 1996-1997 3.6L 3606CC l6 GAS DOHC Naturally Aspirated
+Mercedes-Benz C43 AMG 1998-2000 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz CL500 1998-1999 5.0L 4973CC 303Cu. In. V8 GAS DOHC Naturally Aspirated
+Mercedes-Benz CL500 1998-1999 5.0L 4973CC V8 GAS DOHC Naturally Aspirated
+Mercedes-Benz CL500 2000 5.0L 4973CC V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz CLK320 1998-2003 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
+Mercedes-Benz CLK430 1999-2003 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz E300 1996-1997 3.0L 2996CC l6 DIESEL DOHC Naturally Aspirated
+Mercedes-Benz E300 1998-1999 3.0L 2996CC l6 DIESEL DOHC Turbocharged
+Mercedes-Benz E320 1996-1997 3.2L 3199CC l6 GAS DOHC Naturally Aspirated
+Mercedes-Benz E320 1998-2002 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
+Mercedes-Benz E420 1997 4.2L 4196CC V8 GAS DOHC Naturally Aspirated
+Mercedes-Benz E430 1998-2002 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz E55 AMG 1999-2000 5.5L 5439CC 332Cu. In. V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz ML320 1998-2002 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
+Mercedes-Benz ML430 1999-2001 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
+Mercedes-Benz S320 1996-1999 3.2L 3199CC l6 GAS DOHC Naturally Aspirated
+Mercedes-Benz SLK230 1998-2004 2.3L 2295CC l4 GAS DOHC Supercharged
+Mercedes-Benz SLK320 2001-2004 3.2L 3199CC V6 GAS SOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>255586148611</t>
+          <t>Mitsubishi Lancer 2004-2006
+Mitsubishi Outlander 2003-2006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 1, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "255586148611", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Honda CR-V 2002-2006</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Honda CR-V 2002-2006 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated</t>
+          <t>Mitsubishi Lancer 2004 2.4L 2400CC l4 GAS SOHC Naturally Aspirated
+Mitsubishi Lancer 2005-2006 2.4L 2378CC l4 GAS SOHC Naturally Aspirated
+Mitsubishi Outlander 2003-2004 2.4L 2351CC l4 GAS SOHC Naturally Aspirated
+Mitsubishi Outlander 2004-2006 2.4L 2378CC l4 GAS SOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "235748987359", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233621258535</t>
+          <t>Honda Accord 2008-2012
+Honda Crosstour 2012-2015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 8, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "233621258535", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acura EL 1997-2000
-Acura Integra 1990-2001
-Acura NSX 1991-2005
-Honda Civic 1999-2000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Acura EL 1997-2000 1.6L 1590CC 97Cu. In. l4 GAS Naturally Aspirated
-Acura Integra 1990-2001 1.8L 1834CC l4 GAS DOHC Naturally Aspirated
-Acura Integra 1992-1993 1.7L 1678CC l4 GAS DOHC Naturally Aspirated
-Acura Integra 1994-2001 1.8L 1797CC l4 GAS DOHC Naturally Aspirated
-Acura NSX 1991-2005 3.0L 2977CC V6 GAS DOHC Naturally Aspirated
-Acura NSX 1997-2005 3.2L 3179CC V6 GAS DOHC Naturally Aspirated
-Honda Civic 1999-2000 1.6L 1588CC 98Cu. In. l4 CNG SOHC Naturally Aspirated
-Honda Civic 1999-2000 1.6L 1588CC 98Cu. In. l4 GAS SOHC Naturally Aspirated
-Honda Civic 1999-2000 1.6L 1590CC l4 GAS SOHC Naturally Aspirated
-Honda Civic 1999-2000 1.6L 1595CC l4 GAS DOHC Naturally Aspirated</t>
+          <t>Honda Accord 2008-2012 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated
+Honda Crosstour 2012-2015 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-US", "item_id": "235461387733", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>332388018897</t>
+          <t>Buick Rainier 2004-2007
+Chevrolet Trailblazer 2002-2009
+Chevrolet Trailblazer EXT 2002-2006
+GMC Envoy 2002-2009
+GMC Envoy XL 2002-2006
+GMC Envoy XUV 2004-2005
+Isuzu Ascender 2003-2008
+Oldsmobile Bravada 2002-2004
+Saab 9-7x 2005-2009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "332388018897", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mitsubishi Eclipse 2006-2012
-Mitsubishi Endeavor 2004-2011
-Mitsubishi Galant 2005-2009</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mitsubishi Eclipse 2006-2012 3.8L 3828CC 230Cu. In. V6 GAS SOHC Naturally Aspirated
-Mitsubishi Eclipse 2012 2.4L 2378CC l4 GAS SOHC Naturally Aspirated
-Mitsubishi Endeavor 2004 3.8L 3797CC 230Cu. In. V6 GAS SOHC Naturally Aspirated
-Mitsubishi Endeavor 2004-2011 3.8L 3828CC 230Cu. In. V6 GAS SOHC Naturally Aspirated
-Mitsubishi Galant 2005-2009 3.8L 3828CC 230Cu. In. V6 GAS SOHC Naturally Aspirated</t>
+          <t>Buick Rainier 2004-2007 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+Chevrolet Trailblazer 2002-2009 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+Chevrolet Trailblazer EXT 2002-2006 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+GMC Envoy 2002-2009 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+GMC Envoy XL 2002-2006 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+GMC Envoy XUV 2004-2005 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+Isuzu Ascender 2003-2008 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+Oldsmobile Bravada 2002-2004 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
+Saab 9-7x 2005-2009 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "255410646663", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>256421824484</t>
+          <t>Geo Prizm 1989-1992
+Toyota Corolla 1989-1997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 2, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256421824484", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Acura CL 2001-2003
-Acura TL 1999-2003
-Honda Accord 2001-2002</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Acura CL 2001-2003 3.2L 3210CC V6 GAS SOHC Naturally Aspirated
-Acura TL 1999-2003 3.2L 3210CC V6 GAS SOHC Naturally Aspirated
-Honda Accord 2001-2002 3.0L 2997CC V6 GAS SOHC Naturally Aspirated</t>
+          <t>Geo Prizm 1989 1.6L 1588CC 98Cu. In. l4 GAS DOHC Naturally Aspirated
+Geo Prizm 1990-1992 1.6L 1587CC l4 GAS DOHC Naturally Aspirated
+Toyota Corolla 1989-1997 1.6L 1587CC l4 GAS DOHC Naturally Aspirated
+Toyota Corolla 1993-1997 1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "334348192867", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>334041367847</t>
+          <t>Chevrolet S10 1998-2003
+GMC Sonoma 1998-2003
+Isuzu Hombre 1998-2000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 13, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "334041367847", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Acura MDX 2007-2013
-Acura ZDX 2010-2013
-Honda Odyssey 2008-2015
-Honda Pilot 2009-2015
-Honda Ridgeline 2009-2014</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Acura MDX 2007-2013 3.7L 3664CC V6 GAS SOHC Naturally Aspirated
-Acura ZDX 2010-2013 3.7L 3664CC V6 GAS SOHC Naturally Aspirated
-Honda Odyssey 2008-2015 3.5L 3471CC V6 GAS SOHC Naturally Aspirated
-Honda Pilot 2009-2015 3.5L 3471CC V6 GAS SOHC Naturally Aspirated
-Honda Ridgeline 2009-2014 3.5L 3471CC V6 GAS SOHC Naturally Aspirated</t>
+          <t>Chevrolet S10 1998-2003 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated
+Chevrolet S10 1999 BATTERY EV (EV/BEV)
+Chevrolet S10 2000-2002 2.2L 2190CC 134Cu. In. l4 FLEX OHV Naturally Aspirated
+GMC Sonoma 1998-2003 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated
+GMC Sonoma 2000-2002 2.2L 2190CC 134Cu. In. l4 FLEX OHV Naturally Aspirated
+Isuzu Hombre 1998-2000 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "232479816006", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>256102649999</t>
+          <t>Chrysler PT Cruiser 2001-2010
+Dodge Neon 2003-2005
+Dodge SX 2.0 2003-2005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256102649999", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Chrysler Town &amp; Country 2001-2007</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Chrysler Town &amp; Country 2001-2003 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
-Chrysler Town &amp; Country 2001-2007 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
-Chrysler Town &amp; Country 2001-2007 3.8L 3778CC 231Cu. In. V6 GAS OHV Naturally Aspirated</t>
+          <t>Chrysler PT Cruiser 2001-2010 2.4L 2429CC 148Cu. In. l4 GAS DOHC Naturally Aspirated
+Chrysler PT Cruiser 2003-2008 2.4L 2429CC 148Cu. In. l4 GAS DOHC Turbocharged
+Dodge Neon 2003-2005 2.0L 1996CC 122Cu. In. l4 GAS SOHC Naturally Aspirated
+Dodge Neon 2003-2005 2.4L 2429CC 148Cu. In. l4 GAS DOHC Turbocharged
+Dodge Neon 2004-2005 2.0L 1995CC 122Cu. In. l4 GAS SOHC Naturally Aspirated
+Dodge SX 2.0 2003-2005 2.0L 1996CC 122Cu. In. l4 GAS SOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335270737835", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>256202118103</t>
+          <t>Chrysler 300 2011-2013
+Dodge Challenger 2011-2014
+Dodge Charger 2011-2013
+Dodge Durango 2011-2020
+Jeep Grand Cherokee 2011-2020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256202118103", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Acura RDX 2007-2012
-Honda CR-V 2010-2014</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Acura RDX 2007-2012 2.3L 2300CC l4 GAS DOHC Turbocharged
-Honda CR-V 2010-2014 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated</t>
+          <t>Chrysler 300 2011-2012 5.7L 345Cu. In. V8 FLEX OHV Naturally Aspirated
+Chrysler 300 2011-2013 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Chrysler 300 2012-2013 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Challenger 2011-2014 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Challenger 2011-2014 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Charger 2011-2012 5.7L 345Cu. In. V8 FLEX OHV Naturally Aspirated
+Dodge Charger 2011-2013 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Charger 2012-2013 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
+Dodge Durango 2011-2020 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Jeep Grand Cherokee 2011-2020 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
+Jeep Grand Cherokee 2012-2020 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
+Jeep Grand Cherokee 2018-2020 6.2L 6166CC 376Cu. In. V8 GAS OHV Supercharged</t>
         </is>
       </c>
     </row>

--- a/03.crawler/03.eBay/file/5.collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/03.eBay/file/5.collate/crawler_1-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,121 +453,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"page": 1, "market_place_id": "EBAY-US", "item_id": "235544392154", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 12, "market_place_id": "EBAY-US", "item_id": "334707355204", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cadillac SRX 2004-2009</t>
+          <t>Toyota Camry 1987-2001
+Toyota Celica 1988-1999
+Toyota Solara 1999-2001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cadillac SRX 2004-2009 3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated</t>
+          <t>Toyota Camry 1987-1991 2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated
+Toyota Camry 1988-1991 2.5L 2508CC V6 GAS DOHC Naturally Aspirated
+Toyota Camry 1992-2001 2.2L 2164CC l4 GAS DOHC Naturally Aspirated
+Toyota Camry 2000-2001 2.2L 2164CC l4 CNG DOHC Naturally Aspirated
+Toyota Celica 1988-1989 2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated
+Toyota Celica 1988-1989 2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged
+Toyota Celica 1996-1999 2.2L 2164CC l4 GAS DOHC Naturally Aspirated
+Toyota Solara 1999-2001 2.2L 2164CC l4 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{"page": 11, "market_place_id": "EBAY-US", "item_id": "256469386720", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Dodge Ram 1500 2003-2008
-Dodge Ram 2500 2003-2008
-Dodge Ram 3500 2003-2008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dodge Ram 1500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Ram 2500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Ram 3500 2003-2008 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{"page": 15, "market_place_id": "EBAY-US", "item_id": "252900220689", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chrysler Crossfire 2004-2008
-Dodge Sprinter 2500 2003-2006
-Dodge Sprinter 3500 2003-2006
-Freightliner Sprinter 2500 2002-2006
-Freightliner Sprinter 3500 2002-2006
-Mercedes-Benz C220 1996
-Mercedes-Benz C230 1997-2000
-Mercedes-Benz C280 1996-2000
-Mercedes-Benz C36 AMG 1996-1997
-Mercedes-Benz C43 AMG 1998-2000
-Mercedes-Benz CL500 1998-2000
-Mercedes-Benz CLK320 1998-2003
-Mercedes-Benz CLK430 1999-2003
-Mercedes-Benz E300 1996-1999
-Mercedes-Benz E320 1996-2002
-Mercedes-Benz E420 1997
-Mercedes-Benz E430 1998-2002
-Mercedes-Benz E55 AMG 1999-2000
-Mercedes-Benz ML320 1998-2002
-Mercedes-Benz ML430 1999-2001
-Mercedes-Benz S320 1996-1999
-Mercedes-Benz SLK230 1998-2004
-Mercedes-Benz SLK320 2001-2004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chrysler Crossfire 2004-2008 3.2L 3200CC 195Cu. In. V6 GAS SOHC Naturally Aspirated
-Dodge Sprinter 2500 2003-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
-Dodge Sprinter 3500 2003-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
-Freightliner Sprinter 2500 2002-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
-Freightliner Sprinter 3500 2002-2006 2.7L 2687CC 165Cu. In. l5 DIESEL DOHC Turbocharged
-Mercedes-Benz C220 1996 2.2L 2199CC l4 GAS DOHC Naturally Aspirated
-Mercedes-Benz C230 1997-1998 2.3L 2295CC l4 GAS DOHC Naturally Aspirated
-Mercedes-Benz C230 1999-2000 2.3L 2295CC l4 GAS DOHC Supercharged
-Mercedes-Benz C280 1996-1997 2.8L 2799CC l6 GAS DOHC Naturally Aspirated
-Mercedes-Benz C280 1998-2000 2.8L 2799CC V6 GAS SOHC Naturally Aspirated
-Mercedes-Benz C36 AMG 1996-1997 3.6L 3606CC l6 GAS DOHC Naturally Aspirated
-Mercedes-Benz C43 AMG 1998-2000 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz CL500 1998-1999 5.0L 4973CC 303Cu. In. V8 GAS DOHC Naturally Aspirated
-Mercedes-Benz CL500 1998-1999 5.0L 4973CC V8 GAS DOHC Naturally Aspirated
-Mercedes-Benz CL500 2000 5.0L 4973CC V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz CLK320 1998-2003 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
-Mercedes-Benz CLK430 1999-2003 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz E300 1996-1997 3.0L 2996CC l6 DIESEL DOHC Naturally Aspirated
-Mercedes-Benz E300 1998-1999 3.0L 2996CC l6 DIESEL DOHC Turbocharged
-Mercedes-Benz E320 1996-1997 3.2L 3199CC l6 GAS DOHC Naturally Aspirated
-Mercedes-Benz E320 1998-2002 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
-Mercedes-Benz E420 1997 4.2L 4196CC V8 GAS DOHC Naturally Aspirated
-Mercedes-Benz E430 1998-2002 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz E55 AMG 1999-2000 5.5L 5439CC 332Cu. In. V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz ML320 1998-2002 3.2L 3199CC V6 GAS SOHC Naturally Aspirated
-Mercedes-Benz ML430 1999-2001 4.3L 4266CC V8 GAS SOHC Naturally Aspirated
-Mercedes-Benz S320 1996-1999 3.2L 3199CC l6 GAS DOHC Naturally Aspirated
-Mercedes-Benz SLK230 1998-2004 2.3L 2295CC l4 GAS DOHC Supercharged
-Mercedes-Benz SLK320 2001-2004 3.2L 3199CC V6 GAS SOHC Naturally Aspirated</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Mitsubishi Lancer 2004-2006
 Mitsubishi Outlander 2003-2006</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Mitsubishi Lancer 2004 2.4L 2400CC l4 GAS SOHC Naturally Aspirated
 Mitsubishi Lancer 2005-2006 2.4L 2378CC l4 GAS SOHC Naturally Aspirated
@@ -576,32 +497,94 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "256264372483", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Toyota Highlander 2009-2013
+Toyota Venza 2009-2016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Toyota Highlander 2009-2013 2.7L 2672CC 163Cu. In. l4 GAS DOHC Naturally Aspirated
+Toyota Venza 2009-2016 2.7L 2672CC 163Cu. In. l4 GAS DOHC Naturally Aspirated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "256102649999", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysler Town &amp; Country 2001-2007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chrysler Town &amp; Country 2001-2003 3.3L 3301CC 201Cu. In. V6 FLEX OHV Naturally Aspirated
+Chrysler Town &amp; Country 2001-2007 3.3L 3301CC 201Cu. In. V6 GAS OHV Naturally Aspirated
+Chrysler Town &amp; Country 2001-2007 3.8L 3778CC 231Cu. In. V6 GAS OHV Naturally Aspirated</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "235748987359", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "334041377271", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Honda Accord 2008-2012
-Honda Crosstour 2012-2015</t>
+          <t>INFINITI I30 1996-2001
+Nissan Maxima 1997-2001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Honda Accord 2008-2012 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated
-Honda Crosstour 2012-2015 2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated</t>
+          <t>INFINITI I30 1996-2001 3.0L 2988CC 182Cu. In. V6 GAS DOHC Naturally Aspirated
+Nissan Maxima 1997-2001 3.0L 2988CC 182Cu. In. V6 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>{"page": 4, "market_place_id": "EBAY-US", "item_id": "335372891937", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee 1993-1998
+Jeep TJ 2002-2003
+Jeep Wrangler 1999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee 1993-1998 4.0L 242Cu. In. l6 GAS OHV Naturally Aspirated
+Jeep Grand Cherokee 1993-1998 5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated
+Jeep Grand Cherokee 1998 5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated
+Jeep TJ 2002 2.5L 150Cu. In. l4 GAS OHV Naturally Aspirated
+Jeep TJ 2003 2.4L 148Cu. In. l4 GAS DOHC Naturally Aspirated
+Jeep Wrangler 1999 4.0L 242Cu. In. l6 GAS OHV Naturally Aspirated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>{"page": 5, "market_place_id": "EBAY-US", "item_id": "235461387733", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Buick Rainier 2004-2007
 Chevrolet Trailblazer 2002-2009
@@ -614,7 +597,7 @@
 Saab 9-7x 2005-2009</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Buick Rainier 2004-2007 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
 Chevrolet Trailblazer 2002-2009 4.2L 256Cu. In. l6 GAS DOHC Naturally Aspirated
@@ -628,104 +611,57 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "255410646663", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Geo Prizm 1989-1992
-Toyota Corolla 1989-1997</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Geo Prizm 1989 1.6L 1588CC 98Cu. In. l4 GAS DOHC Naturally Aspirated
-Geo Prizm 1990-1992 1.6L 1587CC l4 GAS DOHC Naturally Aspirated
-Toyota Corolla 1989-1997 1.6L 1587CC l4 GAS DOHC Naturally Aspirated
-Toyota Corolla 1993-1997 1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "334348192867", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "335513085831", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chevrolet S10 1998-2003
-GMC Sonoma 1998-2003
-Isuzu Hombre 1998-2000</t>
+          <t>Ford Crown Victoria 2006-2011
+Ford Explorer 2006-2010
+Ford Explorer Sport Trac 2007-2010
+Lincoln Town Car 2006-2011
+Mercury Grand Marquis 2006-2011
+Mercury Mountaineer 2006-2010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chevrolet S10 1998-2003 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated
-Chevrolet S10 1999 BATTERY EV (EV/BEV)
-Chevrolet S10 2000-2002 2.2L 2190CC 134Cu. In. l4 FLEX OHV Naturally Aspirated
-GMC Sonoma 1998-2003 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated
-GMC Sonoma 2000-2002 2.2L 2190CC 134Cu. In. l4 FLEX OHV Naturally Aspirated
-Isuzu Hombre 1998-2000 2.2L 2190CC 134Cu. In. l4 GAS OHV Naturally Aspirated</t>
+          <t>Ford Crown Victoria 2006-2011 4.6L 281Cu. In. V8 FLEX SOHC Naturally Aspirated
+Ford Crown Victoria 2006-2011 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated
+Ford Explorer 2006-2010 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated
+Ford Explorer Sport Trac 2007-2010 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated
+Lincoln Town Car 2006-2011 4.6L 281Cu. In. V8 FLEX SOHC Naturally Aspirated
+Lincoln Town Car 2006-2011 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated
+Mercury Grand Marquis 2006-2010 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated
+Mercury Grand Marquis 2006-2011 4.6L 281Cu. In. V8 FLEX SOHC Naturally Aspirated
+Mercury Mountaineer 2006-2010 4.6L 281Cu. In. V8 GAS SOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "232479816006", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335057592559", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chrysler PT Cruiser 2001-2010
-Dodge Neon 2003-2005
-Dodge SX 2.0 2003-2005</t>
+          <t>Mazda 3 2014-2018
+Mazda 3 Sport 2014-2018
+Mazda CX-5 2013-2020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chrysler PT Cruiser 2001-2010 2.4L 2429CC 148Cu. In. l4 GAS DOHC Naturally Aspirated
-Chrysler PT Cruiser 2003-2008 2.4L 2429CC 148Cu. In. l4 GAS DOHC Turbocharged
-Dodge Neon 2003-2005 2.0L 1996CC 122Cu. In. l4 GAS SOHC Naturally Aspirated
-Dodge Neon 2003-2005 2.4L 2429CC 148Cu. In. l4 GAS DOHC Turbocharged
-Dodge Neon 2004-2005 2.0L 1995CC 122Cu. In. l4 GAS SOHC Naturally Aspirated
-Dodge SX 2.0 2003-2005 2.0L 1996CC 122Cu. In. l4 GAS SOHC Naturally Aspirated</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335270737835", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chrysler 300 2011-2013
-Dodge Challenger 2011-2014
-Dodge Charger 2011-2013
-Dodge Durango 2011-2020
-Jeep Grand Cherokee 2011-2020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chrysler 300 2011-2012 5.7L 345Cu. In. V8 FLEX OHV Naturally Aspirated
-Chrysler 300 2011-2013 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Chrysler 300 2012-2013 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Challenger 2011-2014 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Challenger 2011-2014 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Charger 2011-2012 5.7L 345Cu. In. V8 FLEX OHV Naturally Aspirated
-Dodge Charger 2011-2013 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Charger 2012-2013 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
-Dodge Durango 2011-2020 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Jeep Grand Cherokee 2011-2020 5.7L 345Cu. In. V8 GAS OHV Naturally Aspirated
-Jeep Grand Cherokee 2012-2020 6.4L 6424CC 392Cu. In. V8 GAS OHV Naturally Aspirated
-Jeep Grand Cherokee 2018-2020 6.2L 6166CC 376Cu. In. V8 GAS OHV Supercharged</t>
+          <t>Mazda 3 2014-2018 2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated
+Mazda 3 2014-2018 2.5L 2488CC 152Cu. In. l4 GAS DOHC Naturally Aspirated
+Mazda 3 Sport 2014-2018 2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated
+Mazda 3 Sport 2014-2018 2.5L 2488CC 152Cu. In. l4 GAS DOHC Naturally Aspirated
+Mazda CX-5 2013-2016 2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated
+Mazda CX-5 2014-2020 2.5L 2488CC 152Cu. In. l4 GAS DOHC Naturally Aspirated</t>
         </is>
       </c>
     </row>
